--- a/dist/document/dest/2020/10/doctors/109.xlsx
+++ b/dist/document/dest/2020/10/doctors/109.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>854</v>
       </c>
-      <c r="C2" s="1">
-        <v>5730340</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>902</v>
       </c>
-      <c r="C3" s="1">
-        <v>6945400</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>592</v>
       </c>
-      <c r="C4" s="1">
-        <v>3451360</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>970</v>
       </c>
-      <c r="C5" s="1">
-        <v>2502600</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>203</v>
       </c>
-      <c r="C6" s="1">
-        <v>2009700</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>154</v>
       </c>
-      <c r="C7" s="1">
-        <v>2032800</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>938</v>
       </c>
-      <c r="C8" s="1">
-        <v>6397160</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>73</v>
       </c>
-      <c r="C9" s="1">
-        <v>1260710</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>28</v>
       </c>
-      <c r="C10" s="1">
-        <v>101360</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>14</v>
       </c>
-      <c r="C11" s="1">
-        <v>138600</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>812</v>
       </c>
-      <c r="C12" s="1">
-        <v>2708020</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>30</v>
       </c>
-      <c r="C13" s="1">
-        <v>172500</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>120</v>
       </c>
-      <c r="C14" s="1">
-        <v>726000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>1740</v>
       </c>
-      <c r="C15" s="1">
-        <v>10527000</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>583</v>
       </c>
-      <c r="C16" s="1">
-        <v>8978200</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>629</v>
       </c>
-      <c r="C17" s="1">
-        <v>2893400</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>584</v>
       </c>
-      <c r="C18" s="1">
-        <v>3340480</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>702</v>
       </c>
-      <c r="C19" s="1">
-        <v>2421900</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>2357</v>
       </c>
-      <c r="C20" s="1">
-        <v>34223640</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>714</v>
       </c>
-      <c r="C21" s="1">
-        <v>12566400</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>84</v>
       </c>
-      <c r="C22" s="1">
-        <v>299460</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>6050</v>
       </c>
-      <c r="C23" s="1">
-        <v>45254000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>28</v>
       </c>
-      <c r="C24" s="1">
-        <v>51520</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>840</v>
       </c>
-      <c r="C25" s="1">
-        <v>6006000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>300</v>
       </c>
-      <c r="C26" s="1">
-        <v>3795000</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>1100</v>
       </c>
-      <c r="C27" s="1">
-        <v>2332000</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>360</v>
       </c>
-      <c r="C28" s="1">
-        <v>993600</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>574</v>
       </c>
-      <c r="C29" s="1">
-        <v>7261100</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>255</v>
       </c>
-      <c r="C30" s="1">
-        <v>1173000</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>792</v>
       </c>
-      <c r="C31" s="1">
-        <v>6027120</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>620</v>
       </c>
-      <c r="C32" s="1">
-        <v>6751800</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>224</v>
       </c>
-      <c r="C33" s="1">
-        <v>481600</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>180</v>
       </c>
-      <c r="C34" s="1">
-        <v>745200</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>1264</v>
       </c>
-      <c r="C35" s="1">
-        <v>9037600</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>934</v>
       </c>
-      <c r="C36" s="1">
-        <v>8191180</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>1896</v>
       </c>
-      <c r="C37" s="1">
-        <v>17519040</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>860</v>
       </c>
-      <c r="C38" s="1">
-        <v>7568000</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>902</v>
       </c>
-      <c r="C39" s="1">
-        <v>7838380</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>4</v>
       </c>
-      <c r="C40" s="1">
-        <v>718800</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>292</v>
       </c>
-      <c r="C41" s="1">
-        <v>11242000</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>30</v>
       </c>
-      <c r="C42" s="1">
-        <v>120750</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>8</v>
       </c>
-      <c r="C43" s="1">
-        <v>880000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>60</v>
       </c>
-      <c r="C44" s="1">
-        <v>291600</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>1142</v>
       </c>
-      <c r="C45" s="1">
-        <v>8667780</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>56</v>
       </c>
-      <c r="C46" s="1">
-        <v>231840</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>279</v>
       </c>
-      <c r="C47" s="1">
-        <v>673785</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>28</v>
       </c>
-      <c r="C48" s="1">
-        <v>246400</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>648</v>
       </c>
-      <c r="C49" s="1">
-        <v>2216160</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>1540</v>
       </c>
-      <c r="C50" s="1">
-        <v>4427500</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>356</v>
       </c>
-      <c r="C51" s="1">
-        <v>2710940</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>1155</v>
       </c>
-      <c r="C52" s="1">
-        <v>12069750</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>70</v>
       </c>
-      <c r="C53" s="1">
-        <v>575960</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -977,7 +821,7 @@
         <v>35930</v>
       </c>
       <c r="C54" s="1">
-        <v>285526435</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/109.xlsx
+++ b/dist/document/dest/2020/10/doctors/109.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,431 +402,1368 @@
         <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B2" s="1">
-        <v>854</v>
+        <v>270</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1811700</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B3" s="1">
-        <v>902</v>
+        <v>268</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1798280</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B4" s="1">
-        <v>592</v>
+        <v>120</v>
+      </c>
+      <c r="C4" s="1">
+        <v>805200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Amlor 5mg Pfizer (Amlodipine)</v>
       </c>
       <c r="B5" s="1">
-        <v>970</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>233800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B6" s="1">
-        <v>203</v>
+        <v>427</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3287900</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B7" s="1">
-        <v>154</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>107800</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Cilavef (Celecoxib 200mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B8" s="1">
-        <v>938</v>
+        <v>97</v>
+      </c>
+      <c r="C8" s="1">
+        <v>746900</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B9" s="1">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="C9" s="1">
+        <v>349800</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Concor 2.5mg (Bisoprolol )</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B10" s="1">
-        <v>28</v>
+        <v>588</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3428040</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Coxwell (Etoricoxib 90mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B11" s="1">
-        <v>14</v>
+        <v>160</v>
+      </c>
+      <c r="C11" s="1">
+        <v>932800</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>812</v>
+        <v>412</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1062960</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Duphalac (Iactulose)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>30</v>
+        <v>388</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1001040</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Enterobella (Bacillus clausii)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>120</v>
+        <v>234</v>
+      </c>
+      <c r="C14" s="1">
+        <v>603720</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Esserose (Phospholipids 450mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>1740</v>
+        <v>70</v>
+      </c>
+      <c r="C15" s="1">
+        <v>693000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Febuxotid VK (Febuxostat 40mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>583</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>369600</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>629</v>
+        <v>294</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2005080</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Genprid 4 (Glimepiride 4mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>584</v>
+        <v>420</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2864400</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Hemfibrat (Fenofibrat 300mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>702</v>
+        <v>294</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2005080</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Hueso (Ursodeoxycholic 300mg)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B20" s="1">
-        <v>2357</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>108600</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>Concor 2.5mg (Bisoprolol )</v>
       </c>
       <c r="B21" s="1">
-        <v>714</v>
+        <v>58</v>
+      </c>
+      <c r="C21" s="1">
+        <v>209960</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Daflon (Diosmin, hesperidin)</v>
       </c>
       <c r="B22" s="1">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>246600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>6050</v>
+        <v>514</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1714190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Medovent (Ambroxol 30mg)</v>
+        <v>Duphalac (Lactulose)</v>
       </c>
       <c r="B24" s="1">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>40250</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Metadroxyl (Metadoxine 500mg)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B25" s="1">
-        <v>840</v>
+        <v>90</v>
+      </c>
+      <c r="C25" s="1">
+        <v>544500</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B26" s="1">
-        <v>300</v>
+        <v>160</v>
+      </c>
+      <c r="C26" s="1">
+        <v>968000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>1100</v>
+        <v>618</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3738900</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Mosad MT (Mosapride 5mg)</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>360</v>
+        <v>516</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3121800</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Nolpaza (Pantoprazole 40mg)</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>574</v>
+        <v>140</v>
+      </c>
+      <c r="C29" s="1">
+        <v>847000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>255</v>
+        <v>206</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3172400</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>792</v>
+        <v>237</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3649800</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Optipan (Diacerhein 50mg)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>620</v>
+        <v>150</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2310000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v xml:space="preserve">Ospamox (Amox 500mg) </v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>224</v>
+        <v>120</v>
+      </c>
+      <c r="C33" s="1">
+        <v>552000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Pharcotinex</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>180</v>
+        <v>303</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1393800</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Rabaris (Rabeprazole 20mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>1264</v>
+        <v>60</v>
+      </c>
+      <c r="C35" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Rabesime (Rabeprazole 20mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>934</v>
+        <v>28</v>
+      </c>
+      <c r="C36" s="1">
+        <v>128800</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>1896</v>
+        <v>56</v>
+      </c>
+      <c r="C37" s="1">
+        <v>320320</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Rosutrox (Rosuvastatin 10mg)</v>
+        <v>Genprid 4 (Glimepiride 4mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>860</v>
+        <v>56</v>
+      </c>
+      <c r="C38" s="1">
+        <v>320320</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>902</v>
+        <v>238</v>
+      </c>
+      <c r="C39" s="1">
+        <v>821100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Sotinin</v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>4</v>
+        <v>178</v>
+      </c>
+      <c r="C40" s="1">
+        <v>614100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Stemvir (Tenofovir 300mg)</v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>292</v>
+        <v>84</v>
+      </c>
+      <c r="C41" s="1">
+        <v>289800</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Stresam (Etifoxine hydrochloride)</v>
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>30</v>
+        <v>327</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4748040</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Stroseca (Ivermectin 6mg)</v>
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>8</v>
+        <v>708</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10280160</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Tanakan (Ginkgo biloba 40mg)</v>
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>60</v>
+        <v>356</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5169120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B45" s="1">
-        <v>1142</v>
+        <v>70</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1232000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Timiroitin</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B46" s="1">
-        <v>56</v>
+        <v>168</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2956800</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B47" s="1">
-        <v>279</v>
+        <v>300</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5280000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+        <v>Kuplevotin (Levosulpirid 25mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>28</v>
+        <v>120</v>
+      </c>
+      <c r="C48" s="1">
+        <v>345000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Vastarel MR (Trimetazindine) 35mg</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>648</v>
+        <v>1450</v>
+      </c>
+      <c r="C49" s="1">
+        <v>10846000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Verist (Betahistine 16mg)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>1540</v>
+        <v>2072</v>
+      </c>
+      <c r="C50" s="1">
+        <v>15498560</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>356</v>
+        <v>960</v>
+      </c>
+      <c r="C51" s="1">
+        <v>7180800</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Zlatko-50 (Sitagliptin)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>1155</v>
+        <v>56</v>
+      </c>
+      <c r="C52" s="1">
+        <v>418880</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Zyrtec 10 (Cetirizine)</v>
+        <v>Medovent (Ambroxol 30mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>70</v>
+        <v>28</v>
+      </c>
+      <c r="C53" s="1">
+        <v>51520</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>28</v>
+      </c>
+      <c r="C54" s="1">
+        <v>51520</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Metadroxyl (Metadoxine 500mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>236</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1687400</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Metadroxyl (Metadoxine 500mg)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>120</v>
+      </c>
+      <c r="C56" s="1">
+        <v>858000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>176</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2226400</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>20</v>
+      </c>
+      <c r="C59" s="1">
+        <v>253000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B60" s="1">
+        <v>176</v>
+      </c>
+      <c r="C60" s="1">
+        <v>373120</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B61" s="1">
+        <v>336</v>
+      </c>
+      <c r="C61" s="1">
+        <v>712320</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B62" s="1">
+        <v>150</v>
+      </c>
+      <c r="C62" s="1">
+        <v>318000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
+      </c>
+      <c r="B63" s="1">
+        <v>14</v>
+      </c>
+      <c r="C63" s="1">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>180</v>
+      </c>
+      <c r="C64" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>357</v>
+      </c>
+      <c r="C65" s="1">
+        <v>985320</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>135</v>
+      </c>
+      <c r="C66" s="1">
+        <v>372600</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Myvelpa (Sofosbuver, velpatasvir)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>28</v>
+      </c>
+      <c r="C67" s="1">
+        <v>7056000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>182</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2302300</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>168</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2125200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>96</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1214400</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>14</v>
+      </c>
+      <c r="C71" s="1">
+        <v>64400</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1">
+        <v>326600</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>30</v>
+      </c>
+      <c r="C73" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>162</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1232820</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>374</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2846140</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>284</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2161240</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>60</v>
+      </c>
+      <c r="C77" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>240</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2613600</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>160</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1742400</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Otrivin 0.1% 10ml</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>54400</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B81" s="1">
+        <v>180</v>
+      </c>
+      <c r="C81" s="1">
+        <v>745200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Rabaris (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>306</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2187900</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Rabaris (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>376</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2688400</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Rabaris (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>322</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2302300</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>204</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1789080</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>384</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3367680</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>120</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1052400</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>764</v>
+      </c>
+      <c r="C88" s="1">
+        <v>7059360</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>270</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2494800</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>322</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2975280</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>415</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3652000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>190</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1672000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>249</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2191200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>524</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4553560</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>284</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2467960</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>208</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1807520</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>88</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3388000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Stresam (Etifoxine hydrochloride)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>28</v>
+      </c>
+      <c r="C98" s="1">
+        <v>112700</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>8</v>
+      </c>
+      <c r="C99" s="1">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4</v>
+      </c>
+      <c r="C100" s="1">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Tanakan (Ginkgo biloba 40mg)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>60</v>
+      </c>
+      <c r="C101" s="1">
+        <v>291600</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>259</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1965810</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>544</v>
+      </c>
+      <c r="C103" s="1">
+        <v>4128960</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>214</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1624260</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>28</v>
+      </c>
+      <c r="C105" s="1">
+        <v>212520</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B106" s="1">
+        <v>30</v>
+      </c>
+      <c r="C106" s="1">
+        <v>262350</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>28</v>
+      </c>
+      <c r="C107" s="1">
+        <v>67620</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>174</v>
+      </c>
+      <c r="C108" s="1">
+        <v>420210</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>28</v>
+      </c>
+      <c r="C109" s="1">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B110" s="1">
+        <v>172</v>
+      </c>
+      <c r="C110" s="1">
+        <v>588240</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B111" s="1">
+        <v>320</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1094400</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B112" s="1">
+        <v>60</v>
+      </c>
+      <c r="C112" s="1">
+        <v>205200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Verist (Betahistine 16mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>508</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1460500</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Verist (Betahistine 16mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>180</v>
+      </c>
+      <c r="C114" s="1">
+        <v>517500</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Verist (Betahistine 16mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>266</v>
+      </c>
+      <c r="C115" s="1">
+        <v>764750</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>60</v>
+      </c>
+      <c r="C116" s="1">
+        <v>289800</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>60</v>
+      </c>
+      <c r="C117" s="1">
+        <v>456900</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>86</v>
+      </c>
+      <c r="C118" s="1">
+        <v>654890</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>188</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1431620</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>415</v>
+      </c>
+      <c r="C120" s="1">
+        <v>4336750</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>60</v>
+      </c>
+      <c r="C121" s="1">
+        <v>627000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>176</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1839200</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Zyrtec 10 (Cetirizine)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>14</v>
+      </c>
+      <c r="C123" s="1">
+        <v>115192</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Zyrtec 10 (Cetirizine)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>28</v>
+      </c>
+      <c r="C124" s="1">
+        <v>230384</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B54" s="1">
-        <v>35930</v>
-      </c>
-      <c r="C54" s="1">
-        <v>NaN</v>
+      <c r="B125" s="1">
+        <v>27758</v>
+      </c>
+      <c r="C125" s="1">
+        <v>218925996</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C54"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C125"/>
   </ignoredErrors>
 </worksheet>
 </file>